--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work in progress</t>
   </si>
   <si>
     <t xml:space="preserve">Make Calendar</t>
@@ -410,7 +407,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +493,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -656,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -801,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>48</v>
@@ -828,6 +825,9 @@
       </c>
       <c r="I6" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,22 +838,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,22 +867,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -915,16 +921,16 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,22 +97,22 @@
     <t xml:space="preserve">The user adds an appointment </t>
   </si>
   <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User selects appointment to get displayed</t>
+  </si>
+  <si>
     <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User selects appointment to get displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
   </si>
   <si>
     <t xml:space="preserve">Complete appointment</t>
@@ -492,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -548,6 +548,9 @@
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E2" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
@@ -568,6 +571,9 @@
       <c r="D3" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
@@ -588,6 +594,9 @@
       <c r="D4" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
@@ -606,7 +615,10 @@
         <v>34</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
@@ -626,7 +638,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
@@ -653,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -792,7 +807,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>7</v>
@@ -821,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>7</v>
@@ -850,7 +865,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>7</v>
@@ -879,7 +894,7 @@
         <v>53</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>7</v>

--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\bfh_software_engeneering_project\docs\cs1\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ProjectTeam" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Product Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sprint Backlog" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BurndownChart" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,195 +29,194 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quentin Chiquet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuentinChiquet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabor Tanz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">izolight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel Von Almen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheggi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nic Dorner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spiderpig36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Letander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kenboy192</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>GitHub Alias</t>
+  </si>
+  <si>
+    <t>Quentin Chiquet</t>
+  </si>
+  <si>
+    <t>QuentinChiquet</t>
+  </si>
+  <si>
+    <t>Gabor Tanz</t>
+  </si>
+  <si>
+    <t>izolight</t>
+  </si>
+  <si>
+    <t>Joel Von Almen</t>
+  </si>
+  <si>
+    <t>sheggi</t>
+  </si>
+  <si>
+    <t>Nic Dorner</t>
+  </si>
+  <si>
+    <t>spiderpig36</t>
+  </si>
+  <si>
+    <t>Ken Letander</t>
+  </si>
+  <si>
+    <t>kenboy192</t>
   </si>
   <si>
     <t xml:space="preserve">Hannes Rodel </t>
   </si>
   <si>
-    <t xml:space="preserve">hdrodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
+    <t>hdrodel</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
   <si>
-    <t xml:space="preserve">Effort Plan Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effort Plan Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effort Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add an Appointment</t>
+    <t>Effort Plan Original</t>
+  </si>
+  <si>
+    <t>Effort Plan Updated</t>
+  </si>
+  <si>
+    <t>Effort Actual</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Add an Appointment</t>
   </si>
   <si>
     <t xml:space="preserve">The user adds an appointment </t>
   </si>
   <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User selects appointment to get displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user marks appointment as done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manage patient data</t>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>View appointment</t>
+  </si>
+  <si>
+    <t>User selects appointment to get displayed</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Complete appointment</t>
+  </si>
+  <si>
+    <t>user marks appointment as done</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>manage patient data</t>
   </si>
   <si>
     <t xml:space="preserve">user updates patient data </t>
   </si>
   <si>
-    <t xml:space="preserve">organise appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user changes appointment information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface to Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appointment veiw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI, Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make Calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login Backend</t>
+    <t>organise appointment</t>
+  </si>
+  <si>
+    <t>user changes appointment information</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Database setup</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Gabor</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Interface to Database</t>
+  </si>
+  <si>
+    <t>Appointment veiw</t>
+  </si>
+  <si>
+    <t>UI, Controller</t>
+  </si>
+  <si>
+    <t>Hannes</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>Make Calendar</t>
+  </si>
+  <si>
+    <t>Login view</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Login Backend</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
   </si>
   <si>
-    <t xml:space="preserve">Time of Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Ressources</t>
+    <t>Time of Record</t>
+  </si>
+  <si>
+    <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Remaining Ressources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,22 +225,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -266,7 +254,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -274,69 +262,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -395,30 +347,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5969387755102"/>
+    <col min="1" max="1" width="15.265625"/>
+    <col min="2" max="2" width="18.53125"/>
+    <col min="3" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,90 +686,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.67857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.22448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.5969387755102"/>
+    <col min="1" max="1" width="3.6640625"/>
+    <col min="2" max="2" width="20.46484375"/>
+    <col min="3" max="3" width="35.46484375"/>
+    <col min="4" max="4" width="7.19921875"/>
+    <col min="5" max="5" width="11.59765625"/>
+    <col min="6" max="6" width="13.06640625"/>
+    <col min="7" max="7" width="10.06640625"/>
+    <col min="8" max="8" width="14.33203125"/>
+    <col min="9" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -535,8 +787,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -548,7 +800,7 @@
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -558,20 +810,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -581,20 +833,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -604,20 +856,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -627,20 +879,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -651,44 +903,36 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.63265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.27040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.780612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.68367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.17857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.13265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.22448979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.5969387755102"/>
+    <col min="1" max="1" width="4.59765625"/>
+    <col min="2" max="2" width="6.265625"/>
+    <col min="3" max="4" width="16.53125"/>
+    <col min="5" max="5" width="13.796875"/>
+    <col min="6" max="6" width="10.19921875"/>
+    <col min="7" max="7" width="9.6640625"/>
+    <col min="8" max="8" width="8.19921875"/>
+    <col min="9" max="9" width="7.796875"/>
+    <col min="10" max="10" width="9.1328125"/>
+    <col min="11" max="11" width="7.19921875"/>
+    <col min="12" max="12" width="15.265625"/>
+    <col min="13" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -726,215 +970,225 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1.2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>1.3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>7</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>1.5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>1.6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5969387755102"/>
+    <col min="1" max="1" width="8.59765625"/>
+    <col min="2" max="2" width="10.06640625"/>
+    <col min="3" max="3" width="14.59765625"/>
+    <col min="4" max="4" width="14.19921875"/>
+    <col min="5" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -948,41 +1202,36 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>42262</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>200</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>42263</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>190</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -913,7 +913,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -1127,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>

--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\bfh_software_engeneering_project\docs\cs1\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nic/Documents/Java/ch.bfh.bti7081.s2017.grey/docs/cs1/task10/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,14 @@
     <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -207,12 +213,18 @@
   </si>
   <si>
     <t>Remaining Ressources</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
@@ -285,7 +297,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,18 +679,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.265625"/>
-    <col min="2" max="2" width="18.53125"/>
-    <col min="3" max="1025" width="8.59765625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -694,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -702,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -710,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -718,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -726,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -744,24 +751,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625"/>
-    <col min="2" max="2" width="20.46484375"/>
-    <col min="3" max="3" width="35.46484375"/>
-    <col min="4" max="4" width="7.19921875"/>
-    <col min="5" max="5" width="11.59765625"/>
-    <col min="6" max="6" width="13.06640625"/>
-    <col min="7" max="7" width="10.06640625"/>
-    <col min="8" max="8" width="14.33203125"/>
-    <col min="9" max="1025" width="8.59765625"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -787,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -803,14 +803,14 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+      <c r="G2" s="2">
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -826,14 +826,17 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -856,7 +859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -879,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -912,27 +915,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.59765625"/>
-    <col min="2" max="2" width="6.265625"/>
-    <col min="3" max="4" width="16.53125"/>
-    <col min="5" max="5" width="13.796875"/>
-    <col min="6" max="6" width="10.19921875"/>
-    <col min="7" max="7" width="9.6640625"/>
-    <col min="8" max="8" width="8.19921875"/>
-    <col min="9" max="9" width="7.796875"/>
-    <col min="10" max="10" width="9.1328125"/>
-    <col min="11" max="11" width="7.19921875"/>
-    <col min="12" max="12" width="15.265625"/>
-    <col min="13" max="1025" width="8.59765625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -970,8 +959,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -997,14 +986,17 @@
       <c r="I3">
         <v>7</v>
       </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
       <c r="K3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -1030,14 +1022,17 @@
       <c r="I4">
         <v>7</v>
       </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
       <c r="K4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -1062,14 +1057,17 @@
       <c r="I5">
         <v>7</v>
       </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
       <c r="K5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.4</v>
       </c>
@@ -1094,14 +1092,17 @@
       <c r="I6">
         <v>7</v>
       </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -1126,14 +1127,17 @@
       <c r="I7">
         <v>7</v>
       </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
       <c r="K7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.6</v>
       </c>
@@ -1158,11 +1162,14 @@
       <c r="I8">
         <v>7</v>
       </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
       <c r="K8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1175,20 +1182,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.59765625"/>
-    <col min="2" max="2" width="10.06640625"/>
-    <col min="3" max="3" width="14.59765625"/>
-    <col min="4" max="4" width="14.19921875"/>
-    <col min="5" max="1025" width="8.59765625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>

--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" state="visible" r:id="rId2"/>
@@ -440,13 +440,13 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.51417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -523,16 +523,16 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.51417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.51417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,21 +695,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7397959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.51417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9392712550607"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.51417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5384615384615"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.51417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1046,10 @@
         <v>50</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>14</v>
@@ -1077,6 +1077,9 @@
       <c r="I12" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1100,6 +1103,9 @@
       <c r="I13" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1115,13 +1121,16 @@
         <v>50</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,6 +1155,9 @@
       <c r="I15" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1168,6 +1180,42 @@
       </c>
       <c r="I16" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1188,13 +1236,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.51417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -249,6 +249,36 @@
   </si>
   <si>
     <t>Moved</t>
+  </si>
+  <si>
+    <t>Design verbessern</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Navigation von Appointment zu Patient View</t>
+  </si>
+  <si>
+    <t>Abschlussdialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Testdaten generiern</t>
+  </si>
+  <si>
+    <t>Design responsive machen</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -902,14 +932,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1043,7 +1074,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -1078,7 +1109,7 @@
         <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -1113,7 +1144,7 @@
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1183,7 +1214,7 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -1218,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1265,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1358,7 +1389,7 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1367,10 +1398,10 @@
         <v>14</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1405,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1443,37 +1474,284 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>2.9</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>3.1</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3.2</v>
+      </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3.3</v>
+      </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3.4</v>
+      </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3.5</v>
+      </c>
       <c r="B22">
         <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3.6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3.7</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cs1/task10/scrum_v02.xlsx
+++ b/docs/cs1/task10/scrum_v02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>View appointment</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
   </si>
   <si>
     <t>low</t>
-  </si>
-  <si>
-    <t>0h</t>
-  </si>
-  <si>
-    <t>waiting</t>
   </si>
   <si>
     <t>manage patient data</t>
@@ -725,13 +716,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -801,12 +794,15 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -835,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -849,13 +845,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -863,25 +862,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
         <v>40</v>
       </c>
-      <c r="G3" s="2">
-        <v>31</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -889,22 +888,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,22 +914,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -935,22 +940,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2">
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -963,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -980,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -989,13 +997,13 @@
         <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>17</v>
@@ -1021,21 +1029,21 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
       <c r="I3">
         <v>7</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1057,21 +1065,21 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
       <c r="I4">
         <v>7</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1093,19 +1101,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -1117,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1128,19 +1136,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -1152,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1163,20 +1171,20 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
       <c r="I7">
         <v>7</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1198,20 +1206,20 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8">
         <v>7</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1233,20 +1241,20 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
       <c r="I9">
         <v>7</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1268,19 +1276,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1292,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1303,19 +1311,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1327,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1338,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1362,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1373,19 +1381,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13">
         <v>14</v>
@@ -1397,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1408,19 +1416,19 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -1432,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1443,19 +1451,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15">
         <v>14</v>
@@ -1467,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1478,19 +1486,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
         <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1502,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1513,19 +1521,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17">
         <v>7</v>
@@ -1537,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1548,19 +1556,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1572,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1583,19 +1591,19 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1607,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1618,19 +1626,19 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1642,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1653,19 +1661,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
         <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>53</v>
       </c>
       <c r="I21">
         <v>14</v>
@@ -1677,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1688,19 +1696,19 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I22">
         <v>7</v>
@@ -1709,10 +1717,10 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1723,19 +1731,19 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I23">
         <v>7</v>
@@ -1744,10 +1752,10 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1758,19 +1766,19 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I24">
         <v>7</v>
@@ -1779,10 +1787,10 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1793,19 +1801,19 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1814,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1828,19 +1836,19 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1849,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1863,19 +1871,19 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -1884,10 +1892,10 @@
         <v>14</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1901,26 +1909,30 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
